--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,32 +523,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>验证消息类型字段的正确输入</t>
+          <t>测试文件上传功能，包括支持PDF和图片格式</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>用户已经登录应用程序
-应用程序主页已成功加载</t>
+          <t>用户成功登录到系统
+系统支持的文件格式包括PDF和图片格式</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>导航到消息输入页面
-在消息类型输入框中输入'消息'
-点击提交按钮</t>
+          <t>导航到文件上传页面
+选择一个PDF文件进行上传
+选择一个图片文件进行上传
+点击上传按钮</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>消息类型为'消息'的输入被成功保存
-用户收到输入成功的确认消息</t>
+          <t>文件上传成功
+系统显示上传成功的确认消息</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P0</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -574,25 +575,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>验证时间戳字段不能为空</t>
+          <t>测试支持批量上传文件</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>用户已经登录并导航到消息创建页面</t>
+          <t>用户成功登录到系统
+浏览器支持批量文件上传</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>在时间戳字段保持为空的状态下提交表单
-观察错误提示信息</t>
+          <t>导航到文件上传页面
+批量选择多个文件（包括PDF和图片格式）进行上传
+点击上传按钮</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>系统提示时间戳字段不能为空的错误信息
-表单提交失败</t>
+          <t>所有选定的文件均上传成功
+系统显示每个文件上传的成功状态</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -623,26 +626,28 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>验证提交表单时版本必须为1.0</t>
+          <t>整理结果正确展示并支持下载为Word格式</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>用户已成功登录到系统
-系统正常工作并显示正确的用户界面</t>
+          <t>文件已成功上传并整理完毕
+系统具有整理结果下载功能</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>在版本输入框中输入不同于'1.0'的版本号，例如'2.0'
-点击提交按钮进行提交</t>
+          <t>导航到整理结果页面
+点击下载按钮
+选择Word格式进行下载</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>系统拒绝接受版本号并显示错误消息
-用户被要求输入正确的版本号'1.0'</t>
+          <t>整理结果正确显示在页面
+文件成功下载为Word格式
+文件名正确无误并包含日期时间戳</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -652,7 +657,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>功能测试, 兼容性测试</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -665,6 +670,107 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>AI识别精度对整理结果的影响</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AI模块已启用
+系统支持从PDF和图片中提取内容</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>上传包含资质证照内容的文件
+等待AI识别和整理结果生成
+查看并验证整理结果中的提取内容</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>AI识别精确，整理结果中的内容准确无误
+识别的内容自动摘录成结构化表格</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>功能测试, 性能测试</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TC005</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>溯源功能展示提取内容来源图片的准确性</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>文件整理结果包含来源溯源信息
+系统支持来源图片展示</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>导航到整理结果并启用溯源功能
+查看提取内容对应的来源图片</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>来源图片展示准确，不与其他内容相混淆
+系统响应速度正常，无明显延迟</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>功能测试, 性能测试</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,28 +523,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>测试文件上传功能，包括支持PDF和图片格式</t>
+          <t>验证PDF和图片格式的文件上传</t>
         </is>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>用户成功登录到系统
-系统支持的文件格式包括PDF和图片格式</t>
+          <t>用户已成功登录系统
+用户进入到文件上传页面</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>导航到文件上传页面
-选择一个PDF文件进行上传
-选择一个图片文件进行上传
+          <t>选择支持的PDF文件进行上传
+选择支持的图片文件进行上传
 点击上传按钮</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>文件上传成功
-系统显示上传成功的确认消息</t>
+          <t>PDF文件成功上传
+图片文件成功上传
+页面提示上传成功</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -575,27 +575,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>测试支持批量上传文件</t>
+          <t>验证批量拖动文件上传功能</t>
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>用户成功登录到系统
-浏览器支持批量文件上传</t>
+          <t>用户已成功登录系统
+用户进入到文件上传页面</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>导航到文件上传页面
-批量选择多个文件（包括PDF和图片格式）进行上传
+          <t>将多个支持的文件拖动到上传区域
 点击上传按钮</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>所有选定的文件均上传成功
-系统显示每个文件上传的成功状态</t>
+          <t>所有文件成功上传
+页面提示批量上传成功</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -626,28 +625,25 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>整理结果正确展示并支持下载为Word格式</t>
+          <t>任务完成后查看整理结果功能</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>文件已成功上传并整理完毕
-系统具有整理结果下载功能</t>
+          <t>用户已成功上传文件
+后台任务处理完毕</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>导航到整理结果页面
-点击下载按钮
-选择Word格式进行下载</t>
+          <t>点击查看整理结果按钮</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>整理结果正确显示在页面
-文件成功下载为Word格式
-文件名正确无误并包含日期时间戳</t>
+          <t>系统展示对应的整理结果页
+整理结果显示正常</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -657,7 +653,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>功能测试, 兼容性测试</t>
+          <t>功能测试, 可用性测试</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -678,27 +674,25 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>AI识别精度对整理结果的影响</t>
+          <t>测试下载整理结果为Word格式输出</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AI模块已启用
-系统支持从PDF和图片中提取内容</t>
+          <t>用户已经查看整理结果
+整理结果展示无误</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>上传包含资质证照内容的文件
-等待AI识别和整理结果生成
-查看并验证整理结果中的提取内容</t>
+          <t>点击下载为Word文档按钮</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>AI识别精确，整理结果中的内容准确无误
-识别的内容自动摘录成结构化表格</t>
+          <t>下载的文档为Word格式
+文档能够正常打开并查看内容</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -708,7 +702,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>功能测试, 性能测试</t>
+          <t>功能测试, 兼容性测试</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -729,36 +723,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>溯源功能展示提取内容来源图片的准确性</t>
+          <t>文件上传失败后的状态标记及提示功能</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>文件整理结果包含来源溯源信息
-系统支持来源图片展示</t>
+          <t>用户尝试上传不支持的文件格式</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>导航到整理结果并启用溯源功能
-查看提取内容对应的来源图片</t>
+          <t>选择不支持的文件格式进行上传
+点击上传按钮</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>来源图片展示准确，不与其他内容相混淆
-系统响应速度正常，无明显延迟</t>
+          <t>系统标记上传失败状态
+页面显示失败原因提示弹窗</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P0</t>
+          <t>P3</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>功能测试, 性能测试</t>
+          <t>功能测试, 可用性测试</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -771,6 +764,548 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TC006</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>验证多表格展示功能</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>用户成功上传文件并查看整理结果</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>点击多表格展示选项</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>系统能正确显示多个表格
+表格之间的数据不冲突</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>功能测试, 可用性测试</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TC007</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>AI识别提取资质证件内容及自动摘录功能</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>用户已上传支持AI识别的文件
+文件处理中</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>等待AI提取过程完成
+检查自动生成的表格内容</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>AI能够正确识别并提取文档内容
+表格内容正确且格式无误</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>功能测试, 性能测试</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TC008</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>溯源功能中展示来源图片的准确性</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>用户已查看整理结果
+结果中包含溯源信息</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>点击溯源查看来源图片
+检查图片的准确性</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>系统展示的来源图片准确无误
+图片与内容溯源匹配</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>功能测试, 性能测试</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TC009</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>验证文件上传功能的可靠性</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>用户成功登录系统</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>随机选择不同类型的文件进行上传
+观察上传结果和系统反应时间</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>不同类型文件都能上传成功
+系统能在合理时间内响应</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>功能测试, 性能测试</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TC010</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>验证整理结果展示的正确性</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>上传的文件有已知结构和数据
+文件处理完成</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>查看并审查显示的整理结果
+对比原文件中的数据</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>整理结果准确反映上传文件的数据
+多表格一致性保持良好</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>功能测试, 兼容性测试, 可用性测试</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TC011</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>测试溯源功能中的来源图片展示准确性</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>用户查看整理结果
+有溯源信息提供</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>选择查看溯源细节
+核查来源图片与内容是否匹配</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>溯源展示的来源图片与内容对应正确
+无误导或错误图片</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>P0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>功能测试, 性能测试</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TC012</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>检查下载结果的文件格式和命名正确性</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>用户成功生成并查看整理结果</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>执行下载功能
+检查下载文件的格式和名称</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>下载的文件格式正确为Word
+文件名称符合命名规则</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>功能测试, 兼容性测试</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>TC013</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>验证上传文件后状态标记</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>用户进行文件上传操作</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>上传多个文件
+查看每个文件的上传状态</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>每个文件都有明确的上传状态标记
+成功和失败状态明显分开</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>P3</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>功能测试, 可用性测试</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TC014</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>AI识别提取的准确性测试</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>用户已上传可供检测的资质证件文件</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>启动AI识别过程
+检查识别后的文本内容和格式</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>AI识别提取的内容准确无误
+文本格式符合预期</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>P1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>功能测试, 性能测试</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>TC015</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>多表格展示样式一致性验证</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>用户查看整理结果且为多表格对象</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>逐个检查各表格样式
+观察不同表格之间的样式一致性</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>所有表格的样式都保持一致
+无格式错误或异样</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>兼容性测试, 可用性测试</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>TC016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>溯源功能性能影响测试</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>用户尝试调用溯源信息查看功能</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>多次调用查看溯源功能
+观察系统响应时间和性能</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>系统在合理时间内加载溯源信息
+不出现系统性能下降或卡顿</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>P2</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>性能测试</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Draft</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -523,28 +523,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>验证PDF和图片格式的文件上传</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>测试上传功能支持PDF格式</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>验证系统对PDF格式文件上传的支持，包括上传结果的反馈信息。</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>用户已成功登录系统
-用户进入到文件上传页面</t>
+          <t>用户已登录到系统
+文件上传页面已经打开</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>选择支持的PDF文件进行上传
-选择支持的图片文件进行上传
-点击上传按钮</t>
+          <t>点击文件上传按钮
+从文件选择器中选择一个PDF文件
+点击提交上传按钮</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>PDF文件成功上传
-图片文件成功上传
-页面提示上传成功</t>
+          <t>服务器返回成功状态代码
+文件成功上传
+页面正确显示上传的PDF文件</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -575,26 +579,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>验证批量拖动文件上传功能</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
+          <t>测试上传功能支持图片格式</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>验证系统对图片格式文件上传的支持，包括上传结果的反馈信息。</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>用户已成功登录系统
-用户进入到文件上传页面</t>
+          <t>用户已登录到系统
+文件上传页面已经打开</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>将多个支持的文件拖动到上传区域
-点击上传按钮</t>
+          <t>点击文件上传按钮
+从文件选择器中选择一个图片文件
+点击提交上传按钮</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>所有文件成功上传
-页面提示批量上传成功</t>
+          <t>服务器返回成功状态代码
+文件成功上传
+页面正确显示上传的图片文件</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -625,35 +635,40 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>任务完成后查看整理结果功能</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
+          <t>测试支持批量拖动文件上传</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>验证系统对拖动多文件上传的支持，包括对上传数量的限制。</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>用户已成功上传文件
-后台任务处理完毕</t>
+          <t>用户已登录到系统
+文件上传页面已经打开</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>点击查看整理结果按钮</t>
+          <t>拖动多个文件到文件上传区
+点击上传按钮</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>系统展示对应的整理结果页
-整理结果显示正常</t>
+          <t>服务器返回成功状态代码
+所有文件成功上传并正确显示在页面上</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P0</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>功能测试, 可用性测试</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -674,35 +689,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>测试下载整理结果为Word格式输出</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>测试支持点击批量文件上传</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>验证系统对通过点击方式批量选择文件上传的支持，包括对上传数量的限制。</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>用户已经查看整理结果
-整理结果展示无误</t>
+          <t>用户已登录到系统
+文件上传页面已经打开</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>点击下载为Word文档按钮</t>
+          <t>点击文件上传按钮
+批量选择多个文件进行上传
+点击提交上传按钮</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>下载的文档为Word格式
-文档能够正常打开并查看内容</t>
+          <t>服务器返回成功状态代码
+所有文件成功上传并正确显示在页面上</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P0</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>功能测试, 兼容性测试</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -723,35 +744,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>文件上传失败后的状态标记及提示功能</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
+          <t>测试上传状态标记</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>验证文件上传后状态标记的正确显示，包括上传成功和失败时的表现。</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>用户尝试上传不支持的文件格式</t>
+          <t>用户已完成文件上传操作</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>选择不支持的文件格式进行上传
-点击上传按钮</t>
+          <t>检查上传文件后的状态标记显示
+尝试故意上传错误导致失败</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>系统标记上传失败状态
-页面显示失败原因提示弹窗</t>
+          <t>文件上传成功时，标记为绿色并显示成功消息
+文件上传失败时，标记为红色并显示对应失败提示弹窗</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>功能测试, 可用性测试</t>
+          <t>非功能测试</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -772,34 +797,37 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>验证多表格展示功能</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
+          <t>测试查看结果支持多表格展示</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>验证系统对结果查看页面多表格格式展示的支持。</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>用户成功上传文件并查看整理结果</t>
+          <t>用户已上传多个文件，且文件处理完成</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>点击多表格展示选项</t>
+          <t>进入结果查看页面</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>系统能正确显示多个表格
-表格之间的数据不冲突</t>
+          <t>每个文件的处理结果以不同的表格格式正确展示</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>功能测试, 可用性测试</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -820,26 +848,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AI识别提取资质证件内容及自动摘录功能</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>测试AI识别并提取内容到表格</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>验证AI识别功能的准确性以及自动提取内容后的展示正确性。</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>用户已上传支持AI识别的文件
-文件处理中</t>
+          <t>用户已上传包含可识别内容的文件</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>等待AI提取过程完成
-检查自动生成的表格内容</t>
+          <t>待文件处理完成后查看提取结果</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>AI能够正确识别并提取文档内容
-表格内容正确且格式无误</t>
+          <t>文件内容被正确识别并自动提取到用户界面表格中展示</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -849,7 +878,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>功能测试, 性能测试</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -870,36 +899,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>溯源功能中展示来源图片的准确性</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
+          <t>测试溯源功能来源图片展示</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>验证溯源功能可正确展示提取内容的来源图片。</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>用户已查看整理结果
-结果中包含溯源信息</t>
+          <t>AI文件识别已完成，且提取的数据需要溯源</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>点击溯源查看来源图片
-检查图片的准确性</t>
+          <t>在提取的内容上点击查看来源图像</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>系统展示的来源图片准确无误
-图片与内容溯源匹配</t>
+          <t>页面上正确显示来源图片</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P0</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>功能测试, 性能测试</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -920,25 +950,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>验证文件上传功能的可靠性</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
+          <t>测试多文件上传溯源功能的响应速度</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>确保溯源功能在多文件情况下的加载和响应速度符合预期标准。</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>用户成功登录系统</t>
+          <t>用户已上传多个文件并需查看溯源</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>随机选择不同类型的文件进行上传
-观察上传结果和系统反应时间</t>
+          <t>多个文件处理完成后，点击溯源来源查看</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>不同类型文件都能上传成功
-系统能在合理时间内响应</t>
+          <t>溯源功能在规定的5秒内展示来源图片</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -948,7 +980,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>功能测试, 性能测试</t>
+          <t>性能测试</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -969,36 +1001,37 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>验证整理结果展示的正确性</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
+          <t>测试下载结果的文件格式</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>确认处理结果文件下载的格式符合预期要求。</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>上传的文件有已知结构和数据
-文件处理完成</t>
+          <t>用户文件已成功处理，并有可下载内容</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>查看并审查显示的整理结果
-对比原文件中的数据</t>
+          <t>点击结果页面的下载按钮</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>整理结果准确反映上传文件的数据
-多表格一致性保持良好</t>
+          <t>下载的文件为预期格式，例如PDF或CSV</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>功能测试, 兼容性测试, 可用性测试</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1019,36 +1052,37 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>测试溯源功能中的来源图片展示准确性</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>测试结果文件下载后的文件命名</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>确保下载文件的命名符合规范，便于识别和管理。</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>用户查看整理结果
-有溯源信息提供</t>
+          <t>用户文件已成功处理，并有可下载内容</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>选择查看溯源细节
-核查来源图片与内容是否匹配</t>
+          <t>点击结果页面的下载按钮</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>溯源展示的来源图片与内容对应正确
-无误导或错误图片</t>
+          <t>下载文件的名称应符合既定命名规则（例如：timestamp_filename）</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>P0</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>功能测试, 性能测试</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1069,35 +1103,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>检查下载结果的文件格式和命名正确性</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
+          <t>测试文件上传的安全性</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>验证系统对含有恶意代码文件上传的防御能力。</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>用户成功生成并查看整理结果</t>
+          <t>用户已登录到系统</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>执行下载功能
-检查下载文件的格式和名称</t>
+          <t>尝试上传含有恶意代码的文件
+重新上传无恶意代码的正常文件</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>下载的文件格式正确为Word
-文件名称符合命名规则</t>
+          <t>上传含有恶意代码的文件被拒绝，并显示安全警告
+上传正常文件成功</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P0</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>功能测试, 兼容性测试</t>
+          <t>安全测试</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1118,35 +1156,38 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>验证上传文件后状态标记</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>测试跨浏览器的上传功能</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>确保文件上传功能在不同浏览器的最新版本上正常运行。</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>用户进行文件上传操作</t>
+          <t>用户已登录到系统
+使用不同版本的主流浏览器安装在设备上</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>上传多个文件
-查看每个文件的上传状态</t>
+          <t>使用Chrome 100、Firefox 95、Safari 15分别尝试文件上传</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>每个文件都有明确的上传状态标记
-成功和失败状态明显分开</t>
+          <t>文件在所有浏览器中均能成功上传，且无异常情况</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>P3</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>功能测试, 可用性测试</t>
+          <t>兼容性测试</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1167,35 +1208,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AI识别提取的准确性测试</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>测试浏览器和设备上的结果展示</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>验证不同设备和浏览器下结果显示的一致性及用户体验。</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>用户已上传可供检测的资质证件文件</t>
+          <t>文件已上传并处理完成
+用户可在多种设备和浏览器上访问</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>启动AI识别过程
-检查识别后的文本内容和格式</t>
+          <t>在桌面、平板、手机设备上使用Chrome、Firefox、Safari浏览查看结果显示</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>AI识别提取的内容准确无误
-文本格式符合预期</t>
+          <t>在所有设备和浏览器上，结果展示格式和内容一致且正确</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P2</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>功能测试, 性能测试</t>
+          <t>兼容性测试</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1216,25 +1260,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>多表格展示样式一致性验证</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>测试界面用户体验和易用性</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>评估用户界面设计在新用户眼中的易用性和学习曲线。</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>用户查看整理结果且为多表格对象</t>
+          <t>用户对新页面布局和功能无了解背景</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>逐个检查各表格样式
-观察不同表格之间的样式一致性</t>
+          <t>用户无任何指导下尝试使用文件上传和溯源功能</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>所有表格的样式都保持一致
-无格式错误或异样</t>
+          <t>用户在10分钟内能顺利完成文件上传及溯源操作，无明显困难</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1244,7 +1290,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>兼容性测试, 可用性测试</t>
+          <t>可用性测试</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1265,35 +1311,37 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>溯源功能性能影响测试</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>测试整理结果的准确显示</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>验证多个文件处理后结果显示的准确性与逻辑一致性。</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>用户尝试调用溯源信息查看功能</t>
+          <t>用户已上传并处理多个文件</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>多次调用查看溯源功能
-观察系统响应时间和性能</t>
+          <t>查看处理完成后的结果页面，定位每个文件的结果</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>系统在合理时间内加载溯源信息
-不出现系统性能下降或卡顿</t>
+          <t>所有文件内容正确显示，数据不混乱或丢失，保持一致性</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>P2</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>性能测试</t>
+          <t>功能测试</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,32 +523,33 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>测试上传功能支持PDF格式</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>验证系统对PDF格式文件上传的支持，包括上传结果的反馈信息。</t>
-        </is>
-      </c>
+          <t>验证PDF和图片格式文件上传功能</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>用户已登录到系统
-文件上传页面已经打开</t>
+          <t>用户已登录系统
+用户已准备上传的文件</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>点击文件上传按钮
-从文件选择器中选择一个PDF文件
-点击提交上传按钮</t>
+          <t>打开文件上传界面
+选择小于5MB的PDF文件并上传
+选择大于5MB的PDF文件并上传
+选择小于5MB的图片文件并上传
+选择大于5MB的图片文件并上传
+选择不支持的exe文件并上传</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>服务器返回成功状态代码
-文件成功上传
-页面正确显示上传的PDF文件</t>
+          <t>小于5MB的PDF文件上传成功并显示上传状态
+大于5MB的PDF文件上传失败并显示错误提示
+小于5MB的图片文件上传成功并显示上传状态
+大于5MB的图片文件上传失败并显示错误提示
+不支持的exe文件上传失败并显示错误提示</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -558,7 +559,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>功能测试, 兼容性测试</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -579,32 +580,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>测试上传功能支持图片格式</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>验证系统对图片格式文件上传的支持，包括上传结果的反馈信息。</t>
-        </is>
-      </c>
+          <t>验证批量拖动文件或点击批量文件上传功能</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>用户已登录到系统
-文件上传页面已经打开</t>
+          <t>用户已登录系统
+用户已准备批量上传的文件</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>点击文件上传按钮
-从文件选择器中选择一个图片文件
-点击提交上传按钮</t>
+          <t>打开文件上传界面
+拖动5个文件到上传区域
+点击上传按钮</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>服务器返回成功状态代码
-文件成功上传
-页面正确显示上传的图片文件</t>
+          <t>所有5个文件上传成功并显示上传状态
+上传过程在合理的时间内完成</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -614,7 +610,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>功能测试, 性能测试</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -635,30 +631,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>测试支持批量拖动文件上传</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>验证系统对拖动多文件上传的支持，包括对上传数量的限制。</t>
-        </is>
-      </c>
+          <t>验证后台任务执行完毕后查看整理结果功能</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>用户已登录到系统
-文件上传页面已经打开</t>
+          <t>用户已上传文件
+后台任务已执行完毕</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>拖动多个文件到文件上传区
-点击上传按钮</t>
+          <t>打开整理结果界面
+查看整理结果</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>服务器返回成功状态代码
-所有文件成功上传并正确显示在页面上</t>
+          <t>整理结果正确显示
+查看整理结果的响应时间不超过3秒</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -668,7 +660,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>功能测试, 性能测试</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -689,31 +681,30 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>测试支持点击批量文件上传</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>验证系统对通过点击方式批量选择文件上传的支持，包括对上传数量的限制。</t>
-        </is>
-      </c>
+          <t>验证下载整理结果为Word格式输出功能</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>用户已登录到系统
-文件上传页面已经打开</t>
+          <t>用户已查看整理结果
+整理结果已生成Word格式</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>点击文件上传按钮
-批量选择多个文件进行上传
-点击提交上传按钮</t>
+          <t>在Windows系统下，使用Chrome浏览器点击下载按钮，选择Word格式下载
+在macOS系统下，使用Safari浏览器点击下载按钮，选择Word格式下载
+模拟下载过程中网络中断
+模拟下载文件中途损坏</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>服务器返回成功状态代码
-所有文件成功上传并正确显示在页面上</t>
+          <t>在Windows系统下，使用Chrome浏览器成功下载为Word格式
+在macOS系统下，使用Safari浏览器成功下载为Word格式
+网络中断时，下载失败并显示错误提示
+文件损坏时，下载失败并显示错误提示</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -723,7 +714,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>功能测试, 安全测试, 兼容性测试</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -744,39 +735,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>测试上传状态标记</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>验证文件上传后状态标记的正确显示，包括上传成功和失败时的表现。</t>
-        </is>
-      </c>
+          <t>验证上传文件后有状态标记和失败提示弹窗功能</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>用户已完成文件上传操作</t>
+          <t>用户已上传文件
+文件上传过程中可能出现失败</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>检查上传文件后的状态标记显示
-尝试故意上传错误导致失败</t>
+          <t>上传文件
+观察上传状态标记
+模拟上传失败
+模拟网络中断
+模拟服务器故障</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>文件上传成功时，标记为绿色并显示成功消息
-文件上传失败时，标记为红色并显示对应失败提示弹窗</t>
+          <t>上传状态标记正确显示
+上传失败时出现提示弹窗
+网络中断时出现提示弹窗
+服务器故障时出现提示弹窗</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P0</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>非功能测试</t>
+          <t>功能测试, 可用性测试</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -797,27 +790,30 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>测试查看结果支持多表格展示</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>验证系统对结果查看页面多表格格式展示的支持。</t>
-        </is>
-      </c>
+          <t>验证查看结果时支持多表格展示及在线文档形式展示功能</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>用户已上传多个文件，且文件处理完成</t>
+          <t>用户已上传文件
+整理结果已生成</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>进入结果查看页面</t>
+          <t>打开整理结果界面
+选择多表格展示
+选择在线文档形式展示
+上传文件内容不完整或格式错误的文件</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>每个文件的处理结果以不同的表格格式正确展示</t>
+          <t>多表格展示正确显示
+在线文档形式展示正确显示
+展示过程响应时间在合理范围内
+文件内容不完整或格式错误时，展示界面显示错误提示</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -827,7 +823,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>功能测试, 性能测试</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -848,37 +844,38 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>测试AI识别并提取内容到表格</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>验证AI识别功能的准确性以及自动提取内容后的展示正确性。</t>
-        </is>
-      </c>
+          <t>验证通过AI识别提取资质证照内容并自动摘录成表格功能</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>用户已上传包含可识别内容的文件</t>
+          <t>用户已上传资质证照文件
+AI识别功能已启用</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>待文件处理完成后查看提取结果</t>
+          <t>打开整理结果界面
+查看AI识别提取的内容
+查看自动摘录的表格</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>文件内容被正确识别并自动提取到用户界面表格中展示</t>
+          <t>AI识别提取的内容准确，识别准确率不低于95%
+自动摘录的表格正确显示
+识别和摘录过程响应时间在合理范围内</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>P1</t>
+          <t>P0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>功能测试, 性能测试</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -899,37 +896,37 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>测试溯源功能来源图片展示</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>验证溯源功能可正确展示提取内容的来源图片。</t>
-        </is>
-      </c>
+          <t>验证溯源功能支持在提取内容中展示来源图片功能</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>AI文件识别已完成，且提取的数据需要溯源</t>
+          <t>用户已上传文件
+溯源功能已启用</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>在提取的内容上点击查看来源图像</t>
+          <t>打开整理结果界面
+查看提取内容的来源图片（JPG格式）
+查看提取内容的来源图片（PNG格式）</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>页面上正确显示来源图片</t>
+          <t>来源图片正确显示
+溯源功能直观易用</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>P0</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>功能测试, 可用性测试</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -950,37 +947,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>测试多文件上传溯源功能的响应速度</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>确保溯源功能在多文件情况下的加载和响应速度符合预期标准。</t>
-        </is>
-      </c>
+          <t>验证上传文件时的网络中断处理功能</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>用户已上传多个文件并需查看溯源</t>
+          <t>用户已登录系统
+用户已准备上传的文件</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>多个文件处理完成后，点击溯源来源查看</t>
+          <t>打开文件上传界面
+选择文件并开始上传
+模拟网络中断</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>溯源功能在规定的5秒内展示来源图片</t>
+          <t>上传失败并显示网络中断提示</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>P0</t>
+          <t>P1</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>性能测试</t>
+          <t>功能测试, 可用性测试</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1001,27 +997,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>测试下载结果的文件格式</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>确认处理结果文件下载的格式符合预期要求。</t>
-        </is>
-      </c>
+          <t>验证下载整理结果时的文件损坏处理功能</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>用户文件已成功处理，并有可下载内容</t>
+          <t>用户已查看整理结果
+整理结果已生成Word格式</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>点击结果页面的下载按钮</t>
+          <t>点击下载按钮
+选择Word格式下载
+模拟文件损坏</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>下载的文件为预期格式，例如PDF或CSV</t>
+          <t>下载失败并显示文件损坏提示</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1031,7 +1026,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>功能测试</t>
+          <t>功能测试, 安全测试</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1044,316 +1039,6 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
     </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>TC011</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>测试结果文件下载后的文件命名</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>确保下载文件的命名符合规范，便于识别和管理。</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>用户文件已成功处理，并有可下载内容</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>点击结果页面的下载按钮</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>下载文件的名称应符合既定命名规则（例如：timestamp_filename）</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>功能测试</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>TC012</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>测试文件上传的安全性</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>验证系统对含有恶意代码文件上传的防御能力。</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>用户已登录到系统</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>尝试上传含有恶意代码的文件
-重新上传无恶意代码的正常文件</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>上传含有恶意代码的文件被拒绝，并显示安全警告
-上传正常文件成功</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>P0</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>安全测试</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>TC013</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>测试跨浏览器的上传功能</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>确保文件上传功能在不同浏览器的最新版本上正常运行。</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>用户已登录到系统
-使用不同版本的主流浏览器安装在设备上</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>使用Chrome 100、Firefox 95、Safari 15分别尝试文件上传</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>文件在所有浏览器中均能成功上传，且无异常情况</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>兼容性测试</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>TC014</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>测试浏览器和设备上的结果展示</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>验证不同设备和浏览器下结果显示的一致性及用户体验。</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>文件已上传并处理完成
-用户可在多种设备和浏览器上访问</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>在桌面、平板、手机设备上使用Chrome、Firefox、Safari浏览查看结果显示</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>在所有设备和浏览器上，结果展示格式和内容一致且正确</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>兼容性测试</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>TC015</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>测试界面用户体验和易用性</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>评估用户界面设计在新用户眼中的易用性和学习曲线。</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>用户对新页面布局和功能无了解背景</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>用户无任何指导下尝试使用文件上传和溯源功能</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>用户在10分钟内能顺利完成文件上传及溯源操作，无明显困难</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>P2</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>可用性测试</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>TC016</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>测试整理结果的准确显示</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>验证多个文件处理后结果显示的准确性与逻辑一致性。</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>用户已上传并处理多个文件</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>查看处理完成后的结果页面，定位每个文件的结果</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>所有文件内容正确显示，数据不混乱或丢失，保持一致性</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>P1</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>功能测试</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Draft</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
